--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2456897.653182254</v>
+        <v>2450353.570635248</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261949</v>
+        <v>2345916.138261948</v>
       </c>
     </row>
     <row r="8">
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G2" t="n">
-        <v>227.7664834517757</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.85462475186311</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>30.030219429241</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.6021345738953</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.40110646040575</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>196.0703806957495</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77699516265576</v>
+        <v>387.394840144156</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.0905432484385</v>
       </c>
       <c r="I5" t="n">
-        <v>29.16230310771289</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922225</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291235</v>
+        <v>197.0397157291233</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.518707828811</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078386</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.40063631674908</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537395</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>201.2892242636837</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7551494384634</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463169</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.81690474671557</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039629</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>134.3829843268504</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>214.9323057579423</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>238.8604807518306</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>62.8852869272439</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>225.8555658665794</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.9989830657412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.7883793647623</v>
+        <v>139.5100865300115</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896918</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>154.769446555076</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.1182790519513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>143.3158222056533</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>91.55211331568995</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274124</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>24.28251419491968</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>64.77871132208487</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>74.18248383964777</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.1687810817951</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896925</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>46.18719652447361</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>81.34300800609755</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.7597091746167</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>174.7430637258776</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>93.5179068836576</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>33.94484872801524</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.71991368428608</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>4.46707130753651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>139.8084418793353</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>94.90221951573584</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>64.34190763938454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="C2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="D2" t="n">
-        <v>1052.968135806666</v>
+        <v>578.0652139363849</v>
       </c>
       <c r="E2" t="n">
-        <v>787.0670914110435</v>
+        <v>578.0652139363849</v>
       </c>
       <c r="F2" t="n">
-        <v>521.1660470154206</v>
+        <v>312.1641695407617</v>
       </c>
       <c r="G2" t="n">
-        <v>291.098892013627</v>
+        <v>46.26312514513859</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>46.26312514513859</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.9662583320081</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>815.9109675228958</v>
+        <v>210.6303727006202</v>
       </c>
       <c r="C3" t="n">
-        <v>815.9109675228958</v>
+        <v>210.6303727006202</v>
       </c>
       <c r="D3" t="n">
-        <v>666.9765578616446</v>
+        <v>210.6303727006202</v>
       </c>
       <c r="E3" t="n">
-        <v>507.7391028561891</v>
+        <v>51.39291769516467</v>
       </c>
       <c r="F3" t="n">
-        <v>361.204544883074</v>
+        <v>51.39291769516467</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>51.39291769516467</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>51.39291769516467</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K3" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516946</v>
+        <v>261.6628906109959</v>
       </c>
       <c r="M3" t="n">
-        <v>526.1633218638444</v>
+        <v>522.2725042231461</v>
       </c>
       <c r="N3" t="n">
-        <v>786.7729354759944</v>
+        <v>782.8821178352964</v>
       </c>
       <c r="O3" t="n">
-        <v>786.7729354759944</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="T3" t="n">
-        <v>954.9030226480426</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="U3" t="n">
-        <v>954.9030226480426</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="V3" t="n">
-        <v>954.9030226480426</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="W3" t="n">
-        <v>954.9030226480426</v>
+        <v>626.2421716711069</v>
       </c>
       <c r="X3" t="n">
-        <v>954.9030226480426</v>
+        <v>418.3906714655741</v>
       </c>
       <c r="Y3" t="n">
-        <v>815.9109675228958</v>
+        <v>210.6303727006202</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9724562985265</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.32021752676468</v>
+        <v>1152.498455096955</v>
       </c>
       <c r="C5" t="n">
-        <v>82.32021752676468</v>
+        <v>1152.498455096955</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32021752676468</v>
+        <v>1152.498455096955</v>
       </c>
       <c r="E5" t="n">
-        <v>82.32021752676468</v>
+        <v>766.7102024987103</v>
       </c>
       <c r="F5" t="n">
-        <v>75.3747167775612</v>
+        <v>759.7647017495068</v>
       </c>
       <c r="G5" t="n">
-        <v>60.44845903750488</v>
+        <v>368.4567824119754</v>
       </c>
       <c r="H5" t="n">
-        <v>60.44845903750488</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931762</v>
+        <v>63.33729848931864</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817355</v>
+        <v>232.5599391817378</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923808</v>
+        <v>494.7722161923848</v>
       </c>
       <c r="M5" t="n">
-        <v>803.140442736566</v>
+        <v>803.1404427365719</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029478</v>
+        <v>1101.866392029486</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245508</v>
+        <v>1338.757197245518</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927377</v>
+        <v>1503.263635927388</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576613</v>
+        <v>1549.579360576624</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.555163715782</v>
+        <v>1549.579360576624</v>
       </c>
       <c r="S5" t="n">
-        <v>1232.525147827778</v>
+        <v>1350.549344688621</v>
       </c>
       <c r="T5" t="n">
-        <v>1232.525147827778</v>
+        <v>1350.549344688621</v>
       </c>
       <c r="U5" t="n">
-        <v>1232.525147827778</v>
+        <v>1350.549344688621</v>
       </c>
       <c r="V5" t="n">
-        <v>1232.525147827778</v>
+        <v>1350.549344688621</v>
       </c>
       <c r="W5" t="n">
-        <v>1232.525147827778</v>
+        <v>1350.549344688621</v>
       </c>
       <c r="X5" t="n">
-        <v>859.0593895666982</v>
+        <v>1350.549344688621</v>
       </c>
       <c r="Y5" t="n">
-        <v>468.9200575908865</v>
+        <v>1350.549344688621</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364.6820714981147</v>
+        <v>280.0632316906009</v>
       </c>
       <c r="C6" t="n">
-        <v>190.2290422169878</v>
+        <v>280.0632316906009</v>
       </c>
       <c r="D6" t="n">
-        <v>190.2290422169878</v>
+        <v>280.0632316906009</v>
       </c>
       <c r="E6" t="n">
-        <v>30.99158721153225</v>
+        <v>280.0632316906009</v>
       </c>
       <c r="F6" t="n">
-        <v>30.99158721153225</v>
+        <v>280.0632316906009</v>
       </c>
       <c r="G6" t="n">
-        <v>30.99158721153225</v>
+        <v>141.6165446143719</v>
       </c>
       <c r="H6" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="K6" t="n">
-        <v>56.56309157527225</v>
+        <v>201.3182042532648</v>
       </c>
       <c r="L6" t="n">
-        <v>346.9926440847839</v>
+        <v>491.7477567627776</v>
       </c>
       <c r="M6" t="n">
-        <v>730.5135358274955</v>
+        <v>875.2686485054921</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042803</v>
+        <v>893.8030210042891</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114869</v>
+        <v>1208.814860114879</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258023</v>
+        <v>1444.636565258034</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576613</v>
+        <v>1549.579360576624</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697033</v>
+        <v>1549.579360576624</v>
       </c>
       <c r="S6" t="n">
-        <v>1424.23250813466</v>
+        <v>1381.439761092178</v>
       </c>
       <c r="T6" t="n">
-        <v>1223.19119040361</v>
+        <v>1381.439761092178</v>
       </c>
       <c r="U6" t="n">
-        <v>994.9862654519172</v>
+        <v>1153.234836140485</v>
       </c>
       <c r="V6" t="n">
-        <v>994.9862654519172</v>
+        <v>949.9123873892893</v>
       </c>
       <c r="W6" t="n">
-        <v>740.7489087237157</v>
+        <v>695.6750306610877</v>
       </c>
       <c r="X6" t="n">
-        <v>532.8974085181828</v>
+        <v>487.8235304555548</v>
       </c>
       <c r="Y6" t="n">
-        <v>532.8974085181828</v>
+        <v>280.0632316906009</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="C7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="D7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="E7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153225</v>
+        <v>30.99158721153248</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770176998</v>
+        <v>36.06994770177072</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391419</v>
+        <v>98.09493531391558</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004502</v>
+        <v>173.8807113004522</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454175</v>
+        <v>253.2990873454203</v>
       </c>
       <c r="O7" t="n">
-        <v>310.638516345102</v>
+        <v>310.6385163451054</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179062</v>
+        <v>336.1816213179101</v>
       </c>
       <c r="Q7" t="n">
-        <v>269.0962644344398</v>
+        <v>336.1816213179101</v>
       </c>
       <c r="R7" t="n">
-        <v>253.119592973111</v>
+        <v>336.1816213179101</v>
       </c>
       <c r="S7" t="n">
-        <v>30.99158721153225</v>
+        <v>336.1816213179101</v>
       </c>
       <c r="T7" t="n">
-        <v>30.99158721153225</v>
+        <v>336.1816213179101</v>
       </c>
       <c r="U7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="V7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="W7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="X7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.99158721153225</v>
+        <v>200.4412331089703</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>663.7800743172488</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>277.9918217190046</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>271.0463209698011</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.212521640141</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.746763379062</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.746763379062</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>635.1915732143555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>635.1915732143555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>635.1915732143555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>635.1915732143555</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>635.1915732143555</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>635.1915732143555</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>635.1915732143555</v>
+        <v>216.719389522771</v>
       </c>
       <c r="W10" t="n">
-        <v>635.1915732143555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>635.1915732143555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>635.1915732143555</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5030,19 +5030,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O12" t="n">
-        <v>2227.84021261028</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2432.862693392489</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082768</v>
+        <v>1070.859325254688</v>
       </c>
       <c r="X13" t="n">
-        <v>870.4344461847506</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3950693506686</v>
+        <v>842.8697743566707</v>
       </c>
     </row>
     <row r="14">
@@ -5273,49 +5273,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641087</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2279.445761859784</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>786.0822064765191</v>
+        <v>557.4905621634935</v>
       </c>
       <c r="C16" t="n">
-        <v>786.0822064765191</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="D16" t="n">
-        <v>786.0822064765191</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="E16" t="n">
-        <v>638.169112894126</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="F16" t="n">
-        <v>491.2791653962156</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765191</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765191</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0822064765191</v>
+        <v>959.9316061372633</v>
       </c>
       <c r="Y16" t="n">
-        <v>786.0822064765191</v>
+        <v>739.1390269937332</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>154.3878371814092</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>303.4575213834692</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899333</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698951</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.0893717830344</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830344</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706986</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883055</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1231.508392821672</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1231.508392821672</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>976.8239046157848</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617345004</v>
+        <v>687.4067345788242</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617345004</v>
+        <v>687.4067345788242</v>
       </c>
       <c r="Y19" t="n">
-        <v>804.0893717830344</v>
+        <v>687.4067345788242</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3603.918850690063</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C22" t="n">
-        <v>3603.918850690063</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D22" t="n">
-        <v>3603.918850690063</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>3603.918850690063</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3603.918850690063</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.02050893291</v>
+        <v>871.6588596877259</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727023</v>
+        <v>871.6588596877259</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690063</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.918850690063</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="Y22" t="n">
-        <v>3603.918850690063</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="23">
@@ -5969,49 +5969,49 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
@@ -6023,13 +6023,13 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>732.1698305154048</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404653</v>
+        <v>3800.532462543056</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404653</v>
+        <v>3631.596279615149</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404653</v>
+        <v>3631.596279615149</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404653</v>
+        <v>3483.683186032756</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>3483.683186032756</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227924</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169056</v>
+        <v>3982.180927373296</v>
       </c>
       <c r="W25" t="n">
-        <v>330.825454879945</v>
+        <v>3982.180927373296</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404653</v>
+        <v>3982.180927373296</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404653</v>
+        <v>3982.180927373296</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,10 +6221,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514088</v>
@@ -6233,10 +6233,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6312,19 +6312,19 @@
         <v>659.3731057211724</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113634</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903951</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903951</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903951</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799379</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471208</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557904</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.84116711973</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S28" t="n">
-        <v>1312.9093652615</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T28" t="n">
-        <v>1312.9093652615</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U28" t="n">
-        <v>1312.9093652615</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V28" t="n">
-        <v>1058.224877055613</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="W28" t="n">
-        <v>768.8077070186522</v>
+        <v>4236.576884328664</v>
       </c>
       <c r="X28" t="n">
-        <v>540.8181561206349</v>
+        <v>4008.587333430647</v>
       </c>
       <c r="Y28" t="n">
-        <v>540.8181561206349</v>
+        <v>3904.376443449036</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,52 +6461,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141293</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1841.189502980822</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3803.838860774509</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="C31" t="n">
-        <v>3803.838860774509</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D31" t="n">
-        <v>3653.722221362174</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E31" t="n">
-        <v>3505.80912777978</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>3505.80912777978</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>3505.80912777978</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1305.676512568115</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1081.891097357621</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>1081.891097357621</v>
       </c>
       <c r="V31" t="n">
-        <v>4093.25603081147</v>
+        <v>1081.891097357621</v>
       </c>
       <c r="W31" t="n">
-        <v>3803.838860774509</v>
+        <v>792.47392732066</v>
       </c>
       <c r="X31" t="n">
-        <v>3803.838860774509</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="Y31" t="n">
-        <v>3803.838860774509</v>
+        <v>564.4843764226426</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M33" t="n">
-        <v>932.1883377003194</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.59991596447</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
         <v>2016.139981183167</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3627.330715596855</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596855</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596855</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596855</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1401.179190583543</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1401.179190583543</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>1112.050551797101</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="W34" t="n">
-        <v>3803.838860774509</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="X34" t="n">
-        <v>3627.330715596855</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="Y34" t="n">
-        <v>3627.330715596855</v>
+        <v>857.3660635912138</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6965,22 +6965,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L36" t="n">
-        <v>816.7950850315608</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311523</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975555</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005286</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028589</v>
@@ -7099,46 +7099,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799415</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471244</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.453738352188</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S37" t="n">
-        <v>1404.453738352188</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="T37" t="n">
-        <v>1404.453738352188</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="U37" t="n">
-        <v>1115.325099565746</v>
+        <v>1098.712528333292</v>
       </c>
       <c r="V37" t="n">
-        <v>1115.325099565746</v>
+        <v>1098.712528333292</v>
       </c>
       <c r="W37" t="n">
-        <v>825.9079295287856</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="X37" t="n">
-        <v>597.9183786307683</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307683</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2484.468242641993</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>607.1380464627246</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>415.8104215925219</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>788.7865112929643</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7454,7 +7454,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>488.2756279992589</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>735.040755905723</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028587</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1046.700508672316</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1046.700508672316</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7725,16 +7725,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
         <v>1736.59991596447</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>1322.84934122136</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
   </sheetData>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093847</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>133.2779903082774</v>
       </c>
       <c r="P3" t="n">
-        <v>316.9918199258217</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>100.2612329527922</v>
       </c>
       <c r="K6" t="n">
-        <v>92.41814909163767</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184949</v>
+        <v>458.2546405184964</v>
       </c>
       <c r="N6" t="n">
-        <v>223.1199355726949</v>
+        <v>76.90265003937256</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.6241510367934</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P15" t="n">
-        <v>52.49733361305152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.83804904622792</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.23759968302028</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>199.7396287231148</v>
+        <v>43.65987261462425</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9717,22 +9717,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>199.6230805871083</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>148.274714356655</v>
       </c>
       <c r="N27" t="n">
-        <v>297.2466435761023</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,22 +10194,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>124.3400780863224</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>285.1031356539326</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>50.6266194094357</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.23759968302028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="L36" t="n">
-        <v>285.1031356539325</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>29.47535963978169</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.49733361305218</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>202.5230052237934</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>444.4889386861651</v>
       </c>
       <c r="N45" t="n">
-        <v>104.8749102765739</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>60.66743247001156</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5856702863535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>35.70518909861531</v>
+        <v>26.98348193336605</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>66.77811450331322</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.4663743001434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>23.17774625772432</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>194.6852390828874</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>142.2110542684579</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>160.9309440669523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7383261439555</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>115.4158722702997</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>102.7266318430625</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>116.5778019775057</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>101.1611008089865</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>50.96659166315959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.44644552013517</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>252.5781496085758</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>102.8955593339263</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0559270290545</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>146.428910519242</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>130.8074358733013</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>222.1810906972065</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>855132.3632950331</v>
+        <v>855132.3632950332</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
         <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065632</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065633</v>
-      </c>
       <c r="H2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065627</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749499</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300969</v>
+        <v>138241.1818300997</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133522</v>
+        <v>300621.8974133491</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124993</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414782</v>
+        <v>31952.95942414855</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179937</v>
+        <v>72609.89266179864</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303606.8987592796</v>
+        <v>304469.3167485494</v>
       </c>
       <c r="C4" t="n">
-        <v>264154.2681793278</v>
+        <v>265031.2936389864</v>
       </c>
       <c r="D4" t="n">
-        <v>173579.2517190113</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>28569.94024165058</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>28569.94024165056</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267158</v>
+        <v>60032.1756226718</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871665</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151645.5663571501</v>
+        <v>150783.1483678799</v>
       </c>
       <c r="C6" t="n">
-        <v>153353.7017661161</v>
+        <v>152476.676306455</v>
       </c>
       <c r="D6" t="n">
-        <v>58721.1002024397</v>
+        <v>57809.57459962799</v>
       </c>
       <c r="E6" t="n">
-        <v>-59173.71306070055</v>
+        <v>-59907.31837135214</v>
       </c>
       <c r="F6" t="n">
-        <v>465986.323416196</v>
+        <v>465252.718105544</v>
       </c>
       <c r="G6" t="n">
-        <v>465986.3234161961</v>
+        <v>465252.7181055443</v>
       </c>
       <c r="H6" t="n">
-        <v>465986.323416196</v>
+        <v>465252.7181055441</v>
       </c>
       <c r="I6" t="n">
-        <v>465986.3234161959</v>
+        <v>465252.718105544</v>
       </c>
       <c r="J6" t="n">
-        <v>397110.6246849463</v>
+        <v>396377.0193742941</v>
       </c>
       <c r="K6" t="n">
-        <v>434033.363992048</v>
+        <v>433299.7586813953</v>
       </c>
       <c r="L6" t="n">
-        <v>393376.4307543964</v>
+        <v>392642.8254437455</v>
       </c>
       <c r="M6" t="n">
-        <v>331185.3081823584</v>
+        <v>330451.7028717069</v>
       </c>
       <c r="N6" t="n">
-        <v>465986.3234161959</v>
+        <v>465252.7181055437</v>
       </c>
       <c r="O6" t="n">
-        <v>465986.3234161955</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="P6" t="n">
-        <v>465986.3234161959</v>
+        <v>465252.7181055442</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792232</v>
+        <v>130.7784101792256</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441531</v>
+        <v>387.394840144156</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924338</v>
+        <v>107.765027492436</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378635</v>
+        <v>246.965254037861</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924866</v>
+        <v>124.1528061924892</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104025</v>
+        <v>286.8924326103996</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.2420339516669</v>
+      </c>
+      <c r="K4" t="n">
+        <v>124.1528061924892</v>
+      </c>
+      <c r="L4" t="n">
+        <v>286.8924326103996</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990179</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="K4" t="n">
-        <v>124.1528061924863</v>
-      </c>
-      <c r="L4" t="n">
-        <v>286.8924326104025</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924866</v>
+        <v>124.1528061924892</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104025</v>
+        <v>286.8924326103996</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G2" t="n">
-        <v>187.4437379520557</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>186.0545374375078</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>57.66212045904862</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.08056120340908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>135.2143665578066</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27591,7 +27591,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381038</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>186.6634609677311</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>27.38215501849972</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>161.0449044187352</v>
+        <v>190.2072075264477</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>116.8439548922219</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161533</v>
+        <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
         <v>251.3035935196382</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663299</v>
+        <v>79.7116279466328</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078352</v>
       </c>
       <c r="S6" t="n">
-        <v>125.0575671728528</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>31.51136288574156</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>160.1304301278448</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604899</v>
+        <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300362</v>
+        <v>76.6860047730033</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.41450331463132</v>
       </c>
       <c r="R7" t="n">
-        <v>150.8727158641189</v>
+        <v>166.6896206108343</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>219.9067257039628</v>
       </c>
       <c r="T7" t="n">
         <v>226.9379524973924</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3061659063093</v>
+        <v>151.9231815794589</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>198.8518642628527</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>110.3804879655825</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>83.77990505291393</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>125.3743547112085</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.331676654005825e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792887</v>
+        <v>0.5257423524792985</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328517</v>
+        <v>5.384258867328617</v>
       </c>
       <c r="I5" t="n">
-        <v>20.2686820439578</v>
+        <v>20.26868204395818</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873907</v>
+        <v>44.6217249887399</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918738</v>
+        <v>66.87639876918863</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887542</v>
+        <v>82.96608628887697</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977896</v>
+        <v>92.3157568497807</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876075</v>
+        <v>93.80952230876251</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129482</v>
+        <v>88.58167179129647</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446237</v>
+        <v>75.60240746446378</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629783</v>
+        <v>56.77425946629889</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892715</v>
+        <v>33.02516304892777</v>
       </c>
       <c r="S5" t="n">
-        <v>11.9803538571218</v>
+        <v>11.98035385712203</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978088</v>
+        <v>2.301437147978131</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834309</v>
+        <v>0.04205938819834387</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439894</v>
+        <v>0.2812969577439947</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685372</v>
+        <v>2.716736407685423</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782094</v>
+        <v>9.685004904782275</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387402</v>
+        <v>26.57639371387452</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272131</v>
+        <v>45.42328988272217</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945701</v>
+        <v>61.07721882945815</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767662</v>
+        <v>71.27423354767794</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658259</v>
+        <v>73.16065042658396</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709734</v>
+        <v>66.92770204709859</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323603</v>
+        <v>53.71538134323703</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430293</v>
+        <v>35.90730990430361</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185928</v>
+        <v>17.46508655185961</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235941</v>
+        <v>5.224967614236038</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082132</v>
+        <v>1.133824141082154</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894668</v>
+        <v>0.01850637879894703</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953204</v>
+        <v>0.2358299199953248</v>
       </c>
       <c r="H7" t="n">
-        <v>2.09674237959476</v>
+        <v>2.096742379594799</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768366</v>
+        <v>7.092048866768498</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366915</v>
+        <v>16.67317534366946</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672904</v>
+        <v>27.39914888672955</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821337</v>
+        <v>35.06147737821403</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344827</v>
+        <v>36.96741191344896</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437483</v>
+        <v>36.0884094843755</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715676</v>
+        <v>33.33348723715738</v>
       </c>
       <c r="P7" t="n">
-        <v>28.5225568692522</v>
+        <v>28.52255686925273</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.7475399370627</v>
+        <v>19.74753993706307</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633504</v>
+        <v>10.60377076633524</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009355</v>
+        <v>4.109872333009432</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889096</v>
+        <v>1.007636930889115</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156295</v>
+        <v>0.01286345018156319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.459170114873313</v>
       </c>
       <c r="P3" t="n">
-        <v>192.4698337890145</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412655</v>
+        <v>32.67243563412738</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953716</v>
+        <v>170.9319602953728</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693386</v>
+        <v>264.8608858693402</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153387</v>
+        <v>311.4830571153404</v>
       </c>
       <c r="N5" t="n">
-        <v>301.743383124154</v>
+        <v>301.7433831241557</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323535</v>
+        <v>239.2836416323551</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806755</v>
+        <v>166.1681198806769</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175302</v>
+        <v>46.78356025175408</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761617</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>172.0470879209418</v>
       </c>
       <c r="L6" t="n">
-        <v>293.363184353042</v>
+        <v>293.3631843530432</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441531</v>
+        <v>387.394840144156</v>
       </c>
       <c r="N6" t="n">
-        <v>164.9388739159442</v>
+        <v>18.72158838262322</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793824</v>
+        <v>318.1937768793837</v>
       </c>
       <c r="P6" t="n">
-        <v>238.203742568843</v>
+        <v>238.2037425688439</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541305</v>
+        <v>106.0028235541312</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846188</v>
+        <v>5.1296570608467</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852951</v>
+        <v>62.65150263853017</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528886</v>
+        <v>76.55128887528954</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360343</v>
+        <v>80.2205818636041</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119643</v>
+        <v>57.91861515119705</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414568</v>
+        <v>25.80111613414622</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>595.527512704399</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178378</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6371838218676</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,19 +35574,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P15" t="n">
-        <v>259.5907485445763</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>57.74822800113466</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>241.8130382709596</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
@@ -35975,13 +35975,13 @@
         <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594836</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>482.1033309642231</v>
+        <v>326.0235748557325</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>448.8807855431327</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>458.6990914071213</v>
       </c>
       <c r="N27" t="n">
-        <v>630.4412169741153</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799299</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36914,22 +36914,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843354</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>492.1965505854573</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>201.202057997375</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>401.6619767334867</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714619</v>
@@ -37385,10 +37385,10 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>327.2930933377838</v>
       </c>
       <c r="L36" t="n">
-        <v>534.3608406099569</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37400,10 +37400,10 @@
         <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799336</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377946</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.5103663981263</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>353.0984438117327</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>570.7728848187828</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315248</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879393</v>
@@ -38102,10 +38102,10 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>754.9133157366315</v>
       </c>
       <c r="N45" t="n">
-        <v>438.0694836745869</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2532032.777368635</v>
+        <v>2524859.488658352</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702203</v>
       </c>
     </row>
     <row r="8">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>47.8507105376134</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="W2" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="X2" t="n">
-        <v>221.2006630000038</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>71.47694685605617</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>111.9744826955931</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464218</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464218</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>223.4332060983039</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>120.181917138522</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>11.67712895180355</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>147.0631656921466</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281884</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.9546773564008</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>64.00137801481553</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>55.54623367867799</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>222.8198264566398</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586812</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>109.8611006220325</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,13 +1584,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.757585443083896</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>73.6543748599064</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.7360985850899</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002205</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>42.64108407225343</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>31.24390285116882</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.0924407648203</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.32870897476937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>132.4673870728506</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.135137046568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.03801681746324</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>20.36301751890601</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>73.16670031689824</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>112.4815694293646</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>204.1291651531988</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.107731335945597</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>208.4397792623489</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>186.2821895672929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>84.38342407841354</v>
       </c>
       <c r="D46" t="n">
-        <v>46.90175579878738</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323.2990948046595</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="C2" t="n">
-        <v>323.2990948046595</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="D2" t="n">
-        <v>323.2990948046595</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4345,7 +4345,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4360,22 +4360,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>1056.292003761327</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>802.418882762528</v>
       </c>
       <c r="V2" t="n">
-        <v>825.6800813726991</v>
+        <v>802.418882762528</v>
       </c>
       <c r="W2" t="n">
-        <v>546.7341079359765</v>
+        <v>802.418882762528</v>
       </c>
       <c r="X2" t="n">
-        <v>323.2990948046595</v>
+        <v>802.418882762528</v>
       </c>
       <c r="Y2" t="n">
-        <v>323.2990948046595</v>
+        <v>523.4729093258054</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.744486595554</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="C3" t="n">
-        <v>94.29145731442699</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="D3" t="n">
-        <v>94.29145731442699</v>
+        <v>466.5192698462128</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618843</v>
@@ -4409,25 +4409,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114808</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>685.3494183114808</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4436,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>730.7421420887096</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>730.7421420887096</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>730.7421420887096</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>476.5047853605079</v>
+        <v>991.5205167330651</v>
       </c>
       <c r="X3" t="n">
-        <v>476.5047853605079</v>
+        <v>783.6690165275322</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.744486595554</v>
+        <v>783.6690165275322</v>
       </c>
     </row>
     <row r="4">
@@ -4518,16 +4518,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
         <v>22.09252109618843</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1013.993992218076</v>
+        <v>1154.714426687444</v>
       </c>
       <c r="C5" t="n">
-        <v>1013.993992218076</v>
+        <v>785.7519097470324</v>
       </c>
       <c r="D5" t="n">
-        <v>1013.993992218076</v>
+        <v>427.4862111402819</v>
       </c>
       <c r="E5" t="n">
-        <v>638.1963853024987</v>
+        <v>51.68860422470539</v>
       </c>
       <c r="F5" t="n">
-        <v>631.2508845532952</v>
+        <v>44.74310347550191</v>
       </c>
       <c r="G5" t="n">
-        <v>255.4532776377176</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380394</v>
+        <v>57.64391735380332</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456876</v>
+        <v>220.1747338456864</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039972</v>
+        <v>474.0852112039954</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494155</v>
+        <v>773.216086049413</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635718</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293124</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.523776935875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.76264748819</v>
+        <v>1366.762647488186</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.76264748819</v>
+        <v>1166.509506436741</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.76264748819</v>
+        <v>1166.509506436741</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.76264748819</v>
+        <v>1154.714426687444</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.76264748819</v>
+        <v>1154.714426687444</v>
       </c>
       <c r="W5" t="n">
-        <v>1013.993992218076</v>
+        <v>1154.714426687444</v>
       </c>
       <c r="X5" t="n">
-        <v>1013.993992218076</v>
+        <v>1154.714426687444</v>
       </c>
       <c r="Y5" t="n">
-        <v>1013.993992218076</v>
+        <v>1154.714426687444</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.8174018363657</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>259.8174018363657</v>
+        <v>484.4695931075354</v>
       </c>
       <c r="D6" t="n">
-        <v>259.8174018363657</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>111.2687496220762</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782842</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361412</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822773</v>
+        <v>314.0811796138493</v>
       </c>
       <c r="M6" t="n">
-        <v>502.7748277822773</v>
+        <v>581.0776013314382</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903945</v>
+        <v>949.3968358693947</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562714</v>
+        <v>1257.711717241713</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706683</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785556</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="T6" t="n">
-        <v>1118.328410136604</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="U6" t="n">
-        <v>890.1215957901682</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="V6" t="n">
-        <v>890.1215957901682</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="W6" t="n">
-        <v>635.8842390619666</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>428.0327388564338</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>428.0327388564338</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771375</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888149</v>
+        <v>32.0999017588812</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611252</v>
+        <v>90.61654790611198</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236685</v>
+        <v>162.7032697236677</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400017</v>
+        <v>238.5105468400006</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057942</v>
+        <v>292.5145415057929</v>
       </c>
       <c r="P7" t="n">
-        <v>315.203606191867</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.203606191867</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="R7" t="n">
-        <v>315.203606191867</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="S7" t="n">
-        <v>259.0962994457277</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="T7" t="n">
-        <v>29.76317046771375</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771375</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771375</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771375</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771375</v>
+        <v>315.2036061918655</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771375</v>
+        <v>94.4110270483354</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2295.901071558009</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.838184214438</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.838184214438</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.838184214438</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1964.838184214438</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.658674475369</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>319.7224915474621</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>319.7224915474621</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1070.40520340126</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188992</v>
+        <v>1070.40520340126</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188992</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4512536188992</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.658674475369</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662453</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>638.121873619265</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>490.2087800368719</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>490.2087800368719</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>322.0334583566924</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>171.6154499046357</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>860.3619048701495</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>605.6774166642626</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>605.6774166642626</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>377.6878657662453</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>377.6878657662453</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795202</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5579,43 +5579,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>585.5099430858313</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5816,40 +5816,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N21" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3975.73948993662</v>
+        <v>561.6946978510189</v>
       </c>
       <c r="C22" t="n">
-        <v>3806.803307008713</v>
+        <v>392.758514923112</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179249</v>
+        <v>392.758514923112</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596856</v>
+        <v>392.758514923112</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>392.758514923112</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>224.5831932429326</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>964.1357418247887</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014293</v>
+        <v>964.1357418247887</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808407</v>
+        <v>964.1357418247887</v>
       </c>
       <c r="W22" t="n">
-        <v>4606.170084808407</v>
+        <v>964.1357418247887</v>
       </c>
       <c r="X22" t="n">
-        <v>4378.180533910389</v>
+        <v>964.1357418247887</v>
       </c>
       <c r="Y22" t="n">
-        <v>4157.387954766859</v>
+        <v>743.3431626812586</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,61 +5977,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6053,43 +6053,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>503.5547239186418</v>
+        <v>510.7324460062456</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186418</v>
+        <v>510.7324460062456</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>510.7324460062456</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="W25" t="n">
-        <v>986.0022165609664</v>
+        <v>920.3704617345027</v>
       </c>
       <c r="X25" t="n">
-        <v>758.0126656629491</v>
+        <v>692.3809108364853</v>
       </c>
       <c r="Y25" t="n">
-        <v>537.2200865194189</v>
+        <v>692.3809108364853</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6259,13 +6259,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3900243991422</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>265.4538414712354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.4538414712354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.4538414712354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273993</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>844.0280401273993</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>616.038489229382</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>616.038489229382</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6496,13 +6496,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093321</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2507.25999687553</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.4370268152256</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>379.4370268152256</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D31" t="n">
-        <v>229.3203874028899</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E31" t="n">
-        <v>229.3203874028899</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>229.3203874028899</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.867621687013</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>781.8780707889955</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>561.0854916454654</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6706,13 +6706,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.8697743566707</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1313.935409223871</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1313.935409223871</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1313.935409223871</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1024.51823918691</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1024.51823918691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1024.51823918691</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,22 +6946,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,46 +7101,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980057</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473448</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262954</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765121</v>
       </c>
       <c r="V37" t="n">
-        <v>761.3093662244439</v>
+        <v>531.3977182706252</v>
       </c>
       <c r="W37" t="n">
-        <v>761.3093662244439</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>761.3093662244439</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>525.6009593486384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>356.6647764207315</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G40" t="n">
         <v>208.7516828383384</v>
@@ -7329,7 +7329,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>753.5905102466558</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>753.5905102466558</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>753.5905102466558</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>525.6009593486384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>525.6009593486384</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,28 +7432,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>597.9183786307682</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>597.9183786307682</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7742,13 +7742,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2227.840212610279</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7785,25 +7785,25 @@
         <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>441.900558318119</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>269.6013618017768</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948387</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357617</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>78.06372243715145</v>
+        <v>347.7570777074438</v>
       </c>
       <c r="N6" t="n">
-        <v>414.3354383916515</v>
+        <v>437.6152809470451</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451769</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>285.1031356539336</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863231</v>
+        <v>277.6717966208019</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>28.12263706263002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208019</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208019</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.6230805871087</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.47535963978233</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.83804904622852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>52.49733361305249</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>145.2351313103792</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>104.6241510367947</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>36.57286202453663</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>281.4797669554935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>36.76487060436558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>183.5012538134874</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.3938331833827</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>183.0685713167837</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>117.3715701670435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>22.82138760271582</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.5032712071679</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>13.96657557371859</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>89.28591097636324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>146.1305509444716</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>148.380860741491</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>139.6560738944634</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318339225</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>161.385837127432</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>77.79757313622841</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>100.2408087692981</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>82.86339702021429</v>
       </c>
       <c r="D46" t="n">
-        <v>101.713717219425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371443</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371443</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
@@ -26322,37 +26322,37 @@
         <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065632</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.5896065631</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
         <v>586543.589606563</v>
@@ -26368,19 +26368,19 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703835</v>
+        <v>106137.1517703822</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252113</v>
+        <v>316711.9424252122</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.060680460795993e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113817</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313406</v>
+        <v>24677.24609313379</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817144</v>
+        <v>76496.15793817177</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870324</v>
+        <v>269877.2512870329</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26432,13 +26432,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26450,10 +26450,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230223</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485712</v>
+        <v>58810.42201485703</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,16 +26481,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138164.9495194719</v>
+        <v>138164.9495194718</v>
       </c>
       <c r="C6" t="n">
-        <v>180956.5023259395</v>
+        <v>180956.5023259404</v>
       </c>
       <c r="D6" t="n">
-        <v>41719.52958776575</v>
+        <v>41719.52958776479</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.31837135248</v>
+        <v>-60881.90963107412</v>
       </c>
       <c r="F6" t="n">
-        <v>465252.7181055435</v>
+        <v>464278.1268458224</v>
       </c>
       <c r="G6" t="n">
-        <v>465252.7181055443</v>
+        <v>464278.1268458213</v>
       </c>
       <c r="H6" t="n">
-        <v>465252.718105544</v>
+        <v>464278.1268458225</v>
       </c>
       <c r="I6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.1268458227</v>
       </c>
       <c r="J6" t="n">
-        <v>392998.0232344051</v>
+        <v>392023.431974684</v>
       </c>
       <c r="K6" t="n">
-        <v>440575.4720124102</v>
+        <v>439600.8807526887</v>
       </c>
       <c r="L6" t="n">
-        <v>388756.5601673728</v>
+        <v>387781.9689076504</v>
       </c>
       <c r="M6" t="n">
-        <v>330451.7028717067</v>
+        <v>329477.1116119853</v>
       </c>
       <c r="N6" t="n">
-        <v>465252.7181055441</v>
+        <v>464278.1268458223</v>
       </c>
       <c r="O6" t="n">
-        <v>465252.7181055441</v>
+        <v>464278.1268458224</v>
       </c>
       <c r="P6" t="n">
-        <v>465252.7181055441</v>
+        <v>464278.1268458224</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593888</v>
+        <v>117.5602045593878</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464218</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26962,19 +26962,19 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026346</v>
+        <v>82.53894384026246</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576979</v>
+        <v>260.1834596576986</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406638</v>
+        <v>95.88311714406527</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081338</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406632</v>
+        <v>95.88311714406527</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406638</v>
+        <v>95.88311714406527</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081338</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>174.6288352323553</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>148.5304376784653</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>86.16813359934477</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27508,10 +27508,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>139.7205004653265</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>50.57846144115931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.89073922583998</v>
+        <v>9.890739225841116</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128856</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>111.2015419674378</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>239.630715649039</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,16 +27697,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>10.58191476325433</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281891</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129683</v>
+        <v>84.45800155129696</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.740305804518783</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>115.8306021671218</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435848</v>
+        <v>78.37121764358493</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322668</v>
+        <v>68.41045236322684</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>164.7758903887804</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>28.40434105164951</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060692</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30000,13 +30000,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-6.663454095015085e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472603837424678</v>
+        <v>0.472603837424674</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025485</v>
+        <v>4.840054050025445</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231492</v>
+        <v>18.22005944231476</v>
       </c>
       <c r="J5" t="n">
-        <v>40.1116599466228</v>
+        <v>40.11165994662247</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480944</v>
+        <v>60.11698038480893</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439494</v>
+        <v>74.58043007439431</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819605</v>
+        <v>82.98509856819535</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127894</v>
+        <v>84.32788422127823</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288729</v>
+        <v>79.62842981288661</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646554</v>
+        <v>67.96102257646496</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869424</v>
+        <v>51.0358976486938</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262796</v>
+        <v>29.68720080262771</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531486</v>
+        <v>10.76945994531477</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326529</v>
+        <v>2.068823298326512</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397424</v>
+        <v>0.03780830699397392</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560437</v>
+        <v>0.2528653456560416</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941265</v>
+        <v>2.442146890941244</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596244</v>
+        <v>8.706109488596169</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182824</v>
+        <v>23.89022987182804</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078317</v>
+        <v>40.83220803078282</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483529</v>
+        <v>54.90394270483483</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486686</v>
+        <v>64.07031148486632</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270937</v>
+        <v>65.76606198270882</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106756</v>
+        <v>60.16309827106705</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496857</v>
+        <v>48.28619043496816</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128727</v>
+        <v>32.278039561287</v>
       </c>
       <c r="R6" t="n">
-        <v>15.6998326013463</v>
+        <v>15.69983260134617</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707651</v>
+        <v>4.696862889707612</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359229</v>
+        <v>1.01922479235922</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0166358780036871</v>
+        <v>0.01663587800368695</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005371</v>
+        <v>0.2119938115005353</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886594</v>
+        <v>1.884817705886579</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761607</v>
+        <v>6.375232076761554</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308797</v>
+        <v>14.98796247308784</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342603</v>
+        <v>24.62982646342582</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072531</v>
+        <v>31.51769812072504</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094328</v>
+        <v>33.23099356094299</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898676</v>
+        <v>32.44083480898648</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736683</v>
+        <v>29.96436164736658</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275586</v>
+        <v>25.63968789275564</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.7515908884677</v>
+        <v>17.75159088846755</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651419</v>
+        <v>9.532012651651339</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513904</v>
+        <v>3.694473969513873</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477491</v>
+        <v>0.9057917400477414</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912022</v>
+        <v>0.01156329880912012</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34789,16 +34789,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>144.9277431142228</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201028</v>
+        <v>28.16237059200995</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109936</v>
+        <v>164.1725419109931</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548581</v>
+        <v>256.4752296548575</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337558</v>
+        <v>302.1523988337551</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366722</v>
+        <v>292.2617450366715</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539459</v>
+        <v>230.3303996539452</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926787</v>
+        <v>158.5267349926781</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414943</v>
+        <v>41.045198434149</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557038</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690028</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284203</v>
+        <v>287.1899082284198</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>269.6933552702919</v>
       </c>
       <c r="N6" t="n">
-        <v>348.7597882910275</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033526</v>
+        <v>311.4291731033521</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605755</v>
+        <v>232.7745516605751</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111149</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543176</v>
+        <v>2.360334637542969</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104145</v>
+        <v>59.10772338104118</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278386</v>
+        <v>72.81487052278358</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821534</v>
+        <v>76.57300718821507</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614065</v>
+        <v>54.54948956140625</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764934</v>
+        <v>22.91824715764913</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355135</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>492.1965505854582</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523272</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109132</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O21" t="n">
-        <v>310.4863393037382</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523272</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O24" t="n">
-        <v>495.6240934217708</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523272</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>481.9867828282169</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>222.9314639777532</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37478,7 +37478,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515205962</v>
       </c>
       <c r="P37" t="n">
         <v>178.3836006118008</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>259.5907485445772</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>394.4928362664036</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>311.7175659683194</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
